--- a/05. Formatos/excel2.xlsx
+++ b/05. Formatos/excel2.xlsx
@@ -530,13 +530,13 @@
     <t>WALK</t>
   </si>
   <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>Subvencionado</t>
+  </si>
+  <si>
     <t>Particular</t>
-  </si>
-  <si>
-    <t>Municipal</t>
-  </si>
-  <si>
-    <t>Subvencionado</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
         <v>1.0</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
         <v>3.0</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
@@ -870,7 +870,7 @@
         <v>1.0</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +902,7 @@
         <v>2.0</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
@@ -966,7 +966,7 @@
         <v>3.0</v>
       </c>
       <c r="J12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -998,7 +998,7 @@
         <v>1.0</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -1030,7 +1030,7 @@
         <v>1.0</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -1062,7 +1062,7 @@
         <v>1.0</v>
       </c>
       <c r="J15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
@@ -1094,7 +1094,7 @@
         <v>1.0</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
@@ -1158,7 +1158,7 @@
         <v>1.0</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
@@ -1222,7 +1222,7 @@
         <v>2.0</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>3.0</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -1350,7 +1350,7 @@
         <v>3.0</v>
       </c>
       <c r="J24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
@@ -1382,7 +1382,7 @@
         <v>2.0</v>
       </c>
       <c r="J25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
@@ -1446,7 +1446,7 @@
         <v>1.0</v>
       </c>
       <c r="J27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
@@ -1478,7 +1478,7 @@
         <v>3.0</v>
       </c>
       <c r="J28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1510,7 @@
         <v>2.0</v>
       </c>
       <c r="J29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30">
@@ -1542,7 +1542,7 @@
         <v>1.0</v>
       </c>
       <c r="J30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
@@ -1638,7 +1638,7 @@
         <v>1.0</v>
       </c>
       <c r="J33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
@@ -1670,7 +1670,7 @@
         <v>1.0</v>
       </c>
       <c r="J34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35">
@@ -1734,7 +1734,7 @@
         <v>3.0</v>
       </c>
       <c r="J36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>1.0</v>
       </c>
       <c r="J39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40">
@@ -1894,7 +1894,7 @@
         <v>1.0</v>
       </c>
       <c r="J41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42">
@@ -1958,7 +1958,7 @@
         <v>1.0</v>
       </c>
       <c r="J43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44">
@@ -1990,7 +1990,7 @@
         <v>1.0</v>
       </c>
       <c r="J44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45">
@@ -2022,7 +2022,7 @@
         <v>1.0</v>
       </c>
       <c r="J45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46">
@@ -2054,7 +2054,7 @@
         <v>2.0</v>
       </c>
       <c r="J46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47">
@@ -2086,7 +2086,7 @@
         <v>1.0</v>
       </c>
       <c r="J47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
@@ -2118,7 +2118,7 @@
         <v>1.0</v>
       </c>
       <c r="J48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49">
@@ -2150,7 +2150,7 @@
         <v>1.0</v>
       </c>
       <c r="J49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50">
@@ -2278,7 +2278,7 @@
         <v>1.0</v>
       </c>
       <c r="J53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54">
@@ -2342,7 +2342,7 @@
         <v>1.0</v>
       </c>
       <c r="J55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56">
@@ -2374,7 +2374,7 @@
         <v>3.0</v>
       </c>
       <c r="J56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57">
@@ -2406,7 +2406,7 @@
         <v>1.0</v>
       </c>
       <c r="J57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58">
@@ -2438,7 +2438,7 @@
         <v>2.0</v>
       </c>
       <c r="J58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
@@ -2470,7 +2470,7 @@
         <v>1.0</v>
       </c>
       <c r="J59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60">
@@ -2502,7 +2502,7 @@
         <v>1.0</v>
       </c>
       <c r="J60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -2534,7 +2534,7 @@
         <v>2.0</v>
       </c>
       <c r="J61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -2566,7 +2566,7 @@
         <v>2.0</v>
       </c>
       <c r="J62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -2598,7 +2598,7 @@
         <v>1.0</v>
       </c>
       <c r="J63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
@@ -2630,7 +2630,7 @@
         <v>1.0</v>
       </c>
       <c r="J64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
@@ -2790,7 +2790,7 @@
         <v>1.0</v>
       </c>
       <c r="J69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70">
@@ -2854,7 +2854,7 @@
         <v>1.0</v>
       </c>
       <c r="J71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72">
@@ -3046,7 +3046,7 @@
         <v>2.0</v>
       </c>
       <c r="J77" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78">
@@ -3078,7 +3078,7 @@
         <v>1.0</v>
       </c>
       <c r="J78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79">
@@ -3110,7 +3110,7 @@
         <v>1.0</v>
       </c>
       <c r="J79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80">
@@ -3142,7 +3142,7 @@
         <v>2.0</v>
       </c>
       <c r="J80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
